--- a/Project.xlsx
+++ b/Project.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F995E954-7918-4ABB-98C4-F2B91A9660F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Test Groups" sheetId="7" r:id="rId2"/>
     <sheet name="State Transition Diagram" sheetId="2" r:id="rId3"/>
     <sheet name="Variables" sheetId="3" r:id="rId4"/>
-    <sheet name="Boundary Values" sheetId="4" r:id="rId5"/>
-    <sheet name="Equivalence Classes" sheetId="5" r:id="rId6"/>
+    <sheet name="Equivalence Classes" sheetId="5" r:id="rId5"/>
+    <sheet name="Boundary Values" sheetId="4" r:id="rId6"/>
     <sheet name="Test Points" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="234">
   <si>
     <t>1. Login Function Flow Chart</t>
   </si>
@@ -56,21 +54,12 @@
     <t>1.Login Function</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>4. Apply for Leaves</t>
   </si>
   <si>
     <t>Date Range</t>
   </si>
   <si>
-    <t>Holiday Note</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
     <t>5.Settings</t>
   </si>
   <si>
@@ -447,13 +436,351 @@
   </si>
   <si>
     <t>Select Desired Settings from Drop Down</t>
+  </si>
+  <si>
+    <t>1,2,3,9</t>
+  </si>
+  <si>
+    <t>Logout Button</t>
+  </si>
+  <si>
+    <t>1,2,3,9,18</t>
+  </si>
+  <si>
+    <t>Logged Out</t>
+  </si>
+  <si>
+    <t>Profile Button</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10</t>
+  </si>
+  <si>
+    <t>Account Information</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,11</t>
+  </si>
+  <si>
+    <t>Upload Picture</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,11,12</t>
+  </si>
+  <si>
+    <t>Browse Picture from Device</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,11,12,18</t>
+  </si>
+  <si>
+    <t>Profile Picture Changed</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,13</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,13,14</t>
+  </si>
+  <si>
+    <t>Name, Ph No, DOB, Facebook URL</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,13,14,15</t>
+  </si>
+  <si>
+    <t>Blood Group,About, Address</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,13,14,15,18</t>
+  </si>
+  <si>
+    <t>Above mentioned information updated</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,16</t>
+  </si>
+  <si>
+    <t>Profile Overview</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,16,17,18</t>
+  </si>
+  <si>
+    <t>Displays Basic Information</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,16,17</t>
+  </si>
+  <si>
+    <t>Basic Information displayed</t>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6</t>
+  </si>
+  <si>
+    <t>Enter New Password</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7</t>
+  </si>
+  <si>
+    <t>Confirm New Password</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8</t>
+  </si>
+  <si>
+    <t>Press Change Button</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8,18</t>
+  </si>
+  <si>
+    <t>Password Changed Successfully</t>
+  </si>
+  <si>
+    <t>Select Half or Full Leave</t>
+  </si>
+  <si>
+    <t>Specific Event Dates</t>
+  </si>
+  <si>
+    <t>Select Backup Members</t>
+  </si>
+  <si>
+    <t>Explain Reason</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Compensatory Date</t>
+  </si>
+  <si>
+    <t>Compensatory Note</t>
+  </si>
+  <si>
+    <t>Floater Holiday Note</t>
+  </si>
+  <si>
+    <t>Show Entries Drop Down</t>
+  </si>
+  <si>
+    <t>Show Years Drop Down</t>
+  </si>
+  <si>
+    <t>Search Field</t>
+  </si>
+  <si>
+    <t>Date Range-My Attendance</t>
+  </si>
+  <si>
+    <t>must be between 10-24 characters</t>
+  </si>
+  <si>
+    <t>less than 10 or more than 24 characters</t>
+  </si>
+  <si>
+    <t>only lowercase letters</t>
+  </si>
+  <si>
+    <t>Uppercase letters</t>
+  </si>
+  <si>
+    <t>digits from 0-9</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>All Special Characters except Space</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Copy Paste</t>
+  </si>
+  <si>
+    <r>
+      <t>format: username</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curemd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>not folowing this format: username</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@curemd.com</t>
+    </r>
+  </si>
+  <si>
+    <t>must be between 8-12 characters</t>
+  </si>
+  <si>
+    <t>less than 8 or more than 12 characters</t>
+  </si>
+  <si>
+    <t>upper &amp; lowercase letters</t>
+  </si>
+  <si>
+    <t>No upper of lowercase letter</t>
+  </si>
+  <si>
+    <t>at least one numeric digit</t>
+  </si>
+  <si>
+    <t>at least one Uppercase Letter</t>
+  </si>
+  <si>
+    <t>all Alphabets</t>
+  </si>
+  <si>
+    <t>2018-2023</t>
+  </si>
+  <si>
+    <t>10,25,50,100</t>
+  </si>
+  <si>
+    <t>Holiday names in the list</t>
+  </si>
+  <si>
+    <t>Holiday names, not present in list</t>
+  </si>
+  <si>
+    <t>Date must be between 1 to (28-31), explained in Bounday Values</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>Month from 1 to 12</t>
+  </si>
+  <si>
+    <t>YYYY/DD/MM</t>
+  </si>
+  <si>
+    <t>alphabet</t>
+  </si>
+  <si>
+    <t>date other less than 0 or more than 31</t>
+  </si>
+  <si>
+    <t>must be in format of MM/DD/YYYY</t>
+  </si>
+  <si>
+    <t>in any other format ie: DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>Special character / -</t>
+  </si>
+  <si>
+    <t>all special Character except / -</t>
+  </si>
+  <si>
+    <t>YYYY less than 2017 or greater than 2027</t>
+  </si>
+  <si>
+    <t>YYYY must be between 2017 - 2027</t>
+  </si>
+  <si>
+    <t>In any other format ie: DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>must be in format of               MM/DD/YYYY - MM/DD/YYYY</t>
+  </si>
+  <si>
+    <t>2. Basic Function</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Any other thing except mentioned in Valid class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reason</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>All special Character</t>
+  </si>
+  <si>
+    <t>Must Not be NULL</t>
+  </si>
+  <si>
+    <t>Month from Jan - Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,8 +804,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +858,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -780,11 +1171,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -812,6 +1318,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,25 +1340,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,25 +1775,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:colOff>201706</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>48576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>540907</xdr:colOff>
+      <xdr:colOff>470648</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>111500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B6D9C4-207B-28C6-C433-2032BFB0694A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1216,8 +1806,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1277470" y="14265088"/>
-          <a:ext cx="7129966" cy="9031941"/>
+          <a:off x="1411941" y="14257635"/>
+          <a:ext cx="6925236" cy="9016424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1602,41 +2192,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:Y121"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView topLeftCell="B100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="M5" s="21" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="M5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="23"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
@@ -1777,17 +2367,17 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
       <c r="M30" s="1"/>
       <c r="X30" s="2"/>
     </row>
@@ -1874,21 +2464,21 @@
     <row r="44" spans="3:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C44" s="1"/>
       <c r="K44" s="2"/>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="23"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="30"/>
     </row>
     <row r="45" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
@@ -2048,20 +2638,20 @@
     </row>
     <row r="72" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="3:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="23"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="30"/>
     </row>
     <row r="74" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
@@ -2280,11 +2870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06BB3D3-DE6B-4FDF-A00B-88261BE80A9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,60 +2882,60 @@
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="E2" s="24" t="s">
+      <c r="B2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="H2" s="24" t="s">
+      <c r="F2" s="32"/>
+      <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="16">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4" s="16">
         <v>1</v>
@@ -2353,512 +2943,629 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E13" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="33" t="s">
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="E21" t="s">
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="E21" s="31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="C27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="C28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="E29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
+      <c r="E31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
+      <c r="E32" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
+      <c r="E35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
+      <c r="E36" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
+      <c r="E37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+      <c r="E38" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
+      <c r="E39" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
+      <c r="C41" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="s">
+      <c r="E43" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C49" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="32" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="32" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="32" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2866,32 +3573,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -3011,153 +3718,837 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E23080-DE27-4226-A718-6034052BEEF9}">
-  <dimension ref="B3:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="45"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="45"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="45"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="35"/>
+    </row>
+    <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27"/>
-    </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="C16" s="36"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="C17" s="45"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="66"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="66"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="45"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="45"/>
+    </row>
+    <row r="23" spans="2:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="45"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="35"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="45"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="45"/>
+    </row>
+    <row r="28" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="27"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="C28" s="36"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="C29" s="45"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="C30" s="45"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="C31" s="45"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+      <c r="C32" s="35"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="27"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="C33" s="45"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+      <c r="C34" s="45"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="27"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="27"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="27"/>
+      <c r="C35" s="45"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="35"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="31">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87063E86-1EA1-44D1-A089-FA8CB8BE8B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="70"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="72"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="73"/>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="74"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="76"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="42"/>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="76"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="68"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+    </row>
+    <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="80"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="44"/>
+    </row>
+    <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="77"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="79"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="63"/>
+      <c r="C60" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="64"/>
+      <c r="C61" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="64"/>
+      <c r="C62" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="65"/>
+      <c r="C63" s="42"/>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="79"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="42"/>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="79"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="42"/>
+    </row>
+    <row r="76" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="79"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+    </row>
+    <row r="87" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="41"/>
+      <c r="C87" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3170,22 +4561,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B94C34C-A0C7-4A5C-824F-DE9AF37D4DBB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E18BA8-F54B-4F1D-9C3F-F5B50957AB94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
